--- a/data/trans_camb/P17_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 32,55</t>
+          <t>-13,82; 20,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 17,57</t>
+          <t>-14,67; 23,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 15,18</t>
+          <t>-15,54; 23,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 2,36</t>
+          <t>-18,76; 21,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 14,66</t>
+          <t>-23,09; 10,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 39,63</t>
+          <t>-13,74; 23,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 12,59</t>
+          <t>-17,3; 17,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 13,27</t>
+          <t>-10,45; 32,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 27,7</t>
+          <t>-13,7; 11,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 19,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-12,71; 14,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 24,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,29%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>-21,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 523,79</t>
+          <t>-61,59; 283,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 213,55</t>
+          <t>-57,79; 264,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,68; 190,42</t>
+          <t>-60,2; 248,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 11,69</t>
+          <t>-67,64; 209,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 63,62</t>
+          <t>-61,46; 59,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 174,41</t>
+          <t>-35,25; 131,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 66,99</t>
+          <t>-47,1; 78,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 75,56</t>
+          <t>-29,78; 169,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 154,8</t>
+          <t>-48,67; 64,82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-26,05; 116,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-41,65; 82,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 138,9</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>-12,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,19</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-13,06</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,67</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,47</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,48; -4,58</t>
+          <t>-26,06; -4,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 0,1</t>
+          <t>-25,6; -3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 0,67</t>
+          <t>-22,25; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -5,56</t>
+          <t>-13,96; 15,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -2,75</t>
+          <t>-21,65; -6,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 1,09</t>
+          <t>-16,94; -1,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -6,9</t>
+          <t>-11,95; 4,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -2,66</t>
+          <t>-12,0; 5,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,92</t>
+          <t>-20,62; -7,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-18,14; -4,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; -0,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 6,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-64,23%</t>
+          <t>-65,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-60,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-32,52%</t>
+          <t>-42,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,86%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,01%</t>
+          <t>-58,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,96%</t>
+          <t>-41,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-55,96%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-37,64%</t>
+          <t>-17,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-28,46%</t>
+          <t>-61,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-50,05%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-30,34%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,4%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,67; -35,03</t>
+          <t>-87,55; -28,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 7,43</t>
+          <t>-85,83; -22,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 5,47</t>
+          <t>-76,74; 5,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -24,98</t>
+          <t>-55,56; 113,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,84; -12,99</t>
+          <t>-77,53; -32,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 5,16</t>
+          <t>-62,54; -7,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,14; -39,75</t>
+          <t>-45,52; 21,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,19; -15,26</t>
+          <t>-43,51; 27,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,65; -4,18</t>
+          <t>-75,94; -42,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-67,74; -27,66</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-53,46; -1,49</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,4; 34,87</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,68</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 1,29</t>
+          <t>-7,68; 3,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,03</t>
+          <t>-8,07; 4,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 9,33</t>
+          <t>-4,84; 8,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,22; -5,6</t>
+          <t>-4,5; 8,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 4,15</t>
+          <t>-17,73; -3,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 3,99</t>
+          <t>-9,5; 6,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; -3,66</t>
+          <t>-10,79; 4,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,07</t>
+          <t>-10,08; 6,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,39</t>
+          <t>-11,73; -2,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 3,54</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 3,91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 4,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>-32,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-58,16%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>-63,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-9,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-54,48%</t>
+          <t>-19,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-55,89%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-13,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-9,9%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-5,51%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 29,78</t>
+          <t>-79,41; 133,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 111,38</t>
+          <t>-79,19; 149,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 187,97</t>
+          <t>-56,57; 249,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,3; -34,32</t>
+          <t>-50,03; 249,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 26,77</t>
+          <t>-83,94; -28,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 24,23</t>
+          <t>-46,58; 54,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,74; -30,14</t>
+          <t>-52,87; 44,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 26,91</t>
+          <t>-51,2; 54,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 38,37</t>
+          <t>-76,69; -25,42</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-44,43; 40,98</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-44,14; 43,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,91; 47,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -7,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -4,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-48,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-18,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 26,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 37,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-59,35; -34,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,75; -1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 33,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,13; -28,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 22,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-11,3</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-9,15</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-13,99; -1,43</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 0,05</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 3,28</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 10,6</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; -5,65</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 1,87</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 2,38</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 7,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-13,46; -5,87</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; -0,96</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 1,08</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 6,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-48,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-38,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-18,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-53,07%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-19,4%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-14,78%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-51,09%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-26,97%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-70,17; -10,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-65,84; 1,47</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-53,01; 33,31</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-36,84; 90,32</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-66,15; -31,17</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-39,3; 10,67</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-36,33; 13,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-25,59; 38,82</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-64,47; -35,74</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; -5,56</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 6,88</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 38,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
